--- a/examples/exemplo_importar_doador.xlsx
+++ b/examples/exemplo_importar_doador.xlsx
@@ -28,7 +28,20 @@
     <t>email@hotmail.com</t>
   </si>
   <si>
-    <t>11 98765-4321 ou 98765-4321</t>
+    <t xml:space="preserve">formatos validos
+-(11)98765-4321
+-(11)987654321
+-11 98765-4321
+-11 987654321
+-(11)8765-4321
+-(11)87654321
+-11 8765-4321
+-11 87654321
+-987654321
+-98765-4331
+-8765-4331
+-87654331
+</t>
   </si>
   <si>
     <t>nome exato igual cadastrado no sistema</t>
@@ -48,7 +61,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,10 +298,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="11.22"/>
     <col customWidth="1" min="2" max="2" width="25.22"/>
     <col customWidth="1" min="3" max="3" width="25.33"/>
     <col customWidth="1" min="4" max="4" width="21.0"/>
     <col customWidth="1" min="5" max="5" width="20.78"/>
+    <col customWidth="1" min="6" max="6" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -307,14 +321,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
